--- a/amazon-product-reviews/Nike, Air Jordan (Sports shoes) - Amazon Product Reviews.xlsx
+++ b/amazon-product-reviews/Nike, Air Jordan (Sports shoes) - Amazon Product Reviews.xlsx
@@ -1,23 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mesrurebeybinesen/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mustafa/Projects/nlp-datasets/amazon-product-reviews/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16209A79-3727-724B-84F8-64620CD4015C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B64F323E-1459-7E4B-AD07-7A39E81561F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Reviews" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Reviews!$C$1:$C$51</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -96,9 +93,6 @@
     <t>es muy buena calidad y el tamaño fue exacto el que pedí y esta muy bonitos</t>
   </si>
   <si>
-    <t>&amp;nbsp;I love love love the air Jordans!! I’m just so sad my son can’t fit them! Unfortunately I’ll have to return them. These shoes are the real deal!! This seller is top tier with selling original and authentic shoes. It came in its original box and packaging as if I went and purchased them from my local retailer store for them! Love them will be buying again in correct size!</t>
-  </si>
-  <si>
     <t>The shoes are real, they came in perfect condition and they fit perfectly.</t>
   </si>
   <si>
@@ -195,6 +189,9 @@
   </si>
   <si>
     <t>Date</t>
+  </si>
+  <si>
+    <t>I love love love the air Jordans!! I’m just so sad my son can’t fit them! Unfortunately I’ll have to return them. These shoes are the real deal!! This seller is top tier with selling original and authentic shoes. It came in its original box and packaging as if I went and purchased them from my local retailer store for them! Love them will be buying again in correct size!</t>
   </si>
 </sst>
 </file>
@@ -578,633 +575,425 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C51"/>
+  <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="48.33203125" customWidth="1"/>
     <col min="2" max="2" width="18" style="5" customWidth="1"/>
-    <col min="3" max="3" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="B2" s="4">
         <v>44929</v>
       </c>
-      <c r="C2">
-        <f>LEN(A2)</f>
-        <v>379</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B3" s="4">
         <v>44931</v>
       </c>
-      <c r="C3">
-        <f>LEN(A3)</f>
-        <v>365</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="4">
         <v>44927</v>
       </c>
-      <c r="C4">
-        <f>LEN(A4)</f>
-        <v>308</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B5" s="4">
         <v>44931</v>
       </c>
-      <c r="C5">
-        <f>LEN(A5)</f>
-        <v>270</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6" s="4">
         <v>44930</v>
       </c>
-      <c r="C6">
-        <f>LEN(A6)</f>
-        <v>249</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B7" s="4">
         <v>44931</v>
       </c>
-      <c r="C7">
-        <f>LEN(A7)</f>
-        <v>206</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="4">
         <v>44929</v>
       </c>
-      <c r="C8">
-        <f>LEN(A8)</f>
-        <v>202</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B9" s="4">
         <v>44931</v>
       </c>
-      <c r="C9">
-        <f>LEN(A9)</f>
-        <v>189</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B10" s="4">
         <v>44930</v>
       </c>
-      <c r="C10">
-        <f>LEN(A10)</f>
-        <v>160</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B11" s="4">
         <v>44931</v>
       </c>
-      <c r="C11">
-        <f>LEN(A11)</f>
-        <v>159</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B12" s="4">
         <v>44931</v>
       </c>
-      <c r="C12">
-        <f>LEN(A12)</f>
-        <v>156</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B13" s="4">
         <v>44928</v>
       </c>
-      <c r="C13">
-        <f>LEN(A13)</f>
-        <v>144</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B14" s="4">
         <v>44931</v>
       </c>
-      <c r="C14">
-        <f>LEN(A14)</f>
-        <v>138</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B15" s="4">
         <v>44930</v>
       </c>
-      <c r="C15">
-        <f>LEN(A15)</f>
-        <v>135</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B16" s="4">
         <v>44931</v>
       </c>
-      <c r="C16">
-        <f>LEN(A16)</f>
-        <v>120</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B17" s="4">
         <v>44931</v>
       </c>
-      <c r="C17">
-        <f>LEN(A17)</f>
-        <v>120</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B18" s="4">
         <v>44929</v>
       </c>
-      <c r="C18">
-        <f>LEN(A18)</f>
-        <v>119</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B19" s="4">
         <v>44927</v>
       </c>
-      <c r="C19">
-        <f>LEN(A19)</f>
-        <v>113</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B20" s="4">
         <v>44929</v>
       </c>
-      <c r="C20">
-        <f>LEN(A20)</f>
-        <v>106</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B21" s="4">
         <v>44929</v>
       </c>
-      <c r="C21">
-        <f>LEN(A21)</f>
-        <v>102</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B22" s="4">
         <v>44931</v>
       </c>
-      <c r="C22">
-        <f>LEN(A22)</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B23" s="4">
         <v>44931</v>
       </c>
-      <c r="C23">
-        <f>LEN(A23)</f>
-        <v>98</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B24" s="4">
         <v>44931</v>
       </c>
-      <c r="C24">
-        <f>LEN(A24)</f>
-        <v>95</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B25" s="4">
         <v>44928</v>
       </c>
-      <c r="C25">
-        <f>LEN(A25)</f>
-        <v>93</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B26" s="4">
         <v>44929</v>
       </c>
-      <c r="C26">
-        <f>LEN(A26)</f>
-        <v>91</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B27" s="4">
         <v>44929</v>
       </c>
-      <c r="C27">
-        <f>LEN(A27)</f>
-        <v>88</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B28" s="4">
         <v>44930</v>
       </c>
-      <c r="C28">
-        <f>LEN(A28)</f>
-        <v>85</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" s="4">
         <v>44930</v>
       </c>
-      <c r="C29">
-        <f>LEN(A29)</f>
-        <v>83</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B30" s="4">
         <v>44931</v>
       </c>
-      <c r="C30">
-        <f>LEN(A30)</f>
-        <v>76</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B31" s="4">
         <v>44931</v>
       </c>
-      <c r="C31">
-        <f>LEN(A31)</f>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B32" s="4">
         <v>44929</v>
       </c>
-      <c r="C32">
-        <f>LEN(A32)</f>
-        <v>74</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B33" s="4">
         <v>44929</v>
       </c>
-      <c r="C33">
-        <f>LEN(A33)</f>
-        <v>74</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B34" s="4">
         <v>44927</v>
       </c>
-      <c r="C34">
-        <f>LEN(A34)</f>
-        <v>72</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B35" s="4">
         <v>44928</v>
       </c>
-      <c r="C35">
-        <f>LEN(A35)</f>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B36" s="4">
         <v>44929</v>
       </c>
-      <c r="C36">
-        <f>LEN(A36)</f>
-        <v>62</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B37" s="4">
         <v>44928</v>
       </c>
-      <c r="C37">
-        <f>LEN(A37)</f>
-        <v>61</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B38" s="4">
         <v>44931</v>
       </c>
-      <c r="C38">
-        <f>LEN(A38)</f>
-        <v>59</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B39" s="4">
         <v>44929</v>
       </c>
-      <c r="C39">
-        <f>LEN(A39)</f>
-        <v>58</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B40" s="4">
         <v>44929</v>
       </c>
-      <c r="C40">
-        <f>LEN(A40)</f>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B41" s="4">
         <v>44931</v>
       </c>
-      <c r="C41">
-        <f>LEN(A41)</f>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B42" s="4">
         <v>44930</v>
       </c>
-      <c r="C42">
-        <f>LEN(A42)</f>
-        <v>53</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B43" s="4">
         <v>44930</v>
       </c>
-      <c r="C43">
-        <f>LEN(A43)</f>
-        <v>51</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B44" s="4">
         <v>44931</v>
       </c>
-      <c r="C44">
-        <f>LEN(A44)</f>
-        <v>51</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B45" s="4">
         <v>44931</v>
       </c>
-      <c r="C45">
-        <f>LEN(A45)</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B46" s="4">
         <v>44931</v>
       </c>
-      <c r="C46">
-        <f>LEN(A46)</f>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B47" s="4">
         <v>44929</v>
       </c>
-      <c r="C47">
-        <f>LEN(A47)</f>
-        <v>47</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B48" s="4">
         <v>44927</v>
       </c>
-      <c r="C48">
-        <f>LEN(A48)</f>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B49" s="4">
         <v>44930</v>
       </c>
-      <c r="C49">
-        <f>LEN(A49)</f>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B50" s="4">
         <v>44928</v>
       </c>
-      <c r="C50">
-        <f>LEN(A50)</f>
+    </row>
+    <row r="51" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="B51" s="4">
         <v>44931</v>
       </c>
-      <c r="C51">
-        <f>LEN(A51)</f>
-        <v>41</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="C1:C51" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C51">
-      <sortCondition descending="1" ref="C1:C51"/>
-    </sortState>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>